--- a/aaaa.xlsx
+++ b/aaaa.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,521 +372,3241 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alhué</t>
+          <t>Algarrobo</t>
         </is>
       </c>
       <c r="B2">
-        <v>168675.5978908459</v>
+        <v>144084.5221035455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Buin</t>
+          <t>Alhué</t>
         </is>
       </c>
       <c r="B3">
-        <v>218985.7380562847</v>
+        <v>207686.9956140351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Calera de Tango</t>
+          <t>Alto Biobío</t>
         </is>
       </c>
       <c r="B4">
-        <v>291949.389400459</v>
+        <v>185407.5763888889</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cerrillos</t>
+          <t>Alto del Carmen</t>
         </is>
       </c>
       <c r="B5">
-        <v>202794.2209859585</v>
+        <v>106150.9074074074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cerro Navia</t>
+          <t>Alto Hospicio</t>
         </is>
       </c>
       <c r="B6">
-        <v>149432.4961189274</v>
+        <v>154714.2206391482</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Colina</t>
+          <t>Ancud</t>
         </is>
       </c>
       <c r="B7">
-        <v>213740.9725298529</v>
+        <v>113179.0351804993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Conchalí</t>
+          <t>Andacollo</t>
         </is>
       </c>
       <c r="B8">
-        <v>187879.0103418983</v>
+        <v>101556.0223214286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Curacaví</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="B9">
-        <v>186212.2617660656</v>
+        <v>141701.8803571429</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>El Bosque</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B10">
-        <v>170325.7123634652</v>
+        <v>292369.2531829794</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>El Monte</t>
+          <t>Antuco</t>
         </is>
       </c>
       <c r="B11">
-        <v>169719.4508015087</v>
+        <v>125759.1545372866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Estación Central</t>
+          <t>Arauco</t>
         </is>
       </c>
       <c r="B12">
-        <v>243990.3048201058</v>
+        <v>203161.3863636364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Huechuraba</t>
+          <t>Arica</t>
         </is>
       </c>
       <c r="B13">
-        <v>222148.7557040353</v>
+        <v>180114.105553927</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Independencia</t>
+          <t>Aysén</t>
         </is>
       </c>
       <c r="B14">
-        <v>250999.6690055315</v>
+        <v>268548.0994936709</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Isla de Maipo</t>
+          <t>Buin</t>
         </is>
       </c>
       <c r="B15">
-        <v>176312.0514005602</v>
+        <v>165833.3461334962</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>La Cisterna</t>
+          <t>Bulnes</t>
         </is>
       </c>
       <c r="B16">
-        <v>231731.8903594771</v>
+        <v>130097.2574712644</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>La Florida</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="B17">
-        <v>257764.2527513647</v>
+        <v>180181.0582051282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>La Granja</t>
+          <t>Cabrero</t>
         </is>
       </c>
       <c r="B18">
-        <v>169759.9169386691</v>
+        <v>121535.8779761905</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>La Pintana</t>
+          <t>Calama</t>
         </is>
       </c>
       <c r="B19">
-        <v>135735.3048847712</v>
+        <v>265716.6358092459</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>La Reina</t>
+          <t>Calbuco</t>
         </is>
       </c>
       <c r="B20">
-        <v>644621.8382075136</v>
+        <v>161700.0567765568</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lampa</t>
+          <t>Caldera</t>
         </is>
       </c>
       <c r="B21">
-        <v>187727.065492627</v>
+        <v>159030.1404050356</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Las Condes</t>
+          <t>Calera</t>
         </is>
       </c>
       <c r="B22">
-        <v>1003428.767760356</v>
+        <v>131776.9082700713</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lo Barnechea</t>
+          <t>Calera de Tango</t>
         </is>
       </c>
       <c r="B23">
-        <v>1000852.96314162</v>
+        <v>271541.8633271491</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lo Espejo</t>
+          <t>Calle Larga</t>
         </is>
       </c>
       <c r="B24">
-        <v>161518.9463186285</v>
+        <v>119154.5481770833</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lo Prado</t>
+          <t>Camarones</t>
         </is>
       </c>
       <c r="B25">
-        <v>163049.6873550919</v>
+        <v>122263.0227777778</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Macul</t>
+          <t>Camiña</t>
         </is>
       </c>
       <c r="B26">
-        <v>273624.5002490282</v>
+        <v>141306.7352380953</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Maipú</t>
+          <t>Canela</t>
         </is>
       </c>
       <c r="B27">
-        <v>281692.8545569438</v>
+        <v>106112.547444491</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>María Pinto</t>
+          <t>Cañete</t>
         </is>
       </c>
       <c r="B28">
-        <v>157567.4669131794</v>
+        <v>99994.86563307494</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Melipilla</t>
+          <t>Carahue</t>
         </is>
       </c>
       <c r="B29">
-        <v>177735.1961878741</v>
+        <v>56760.13178455849</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ñuñoa</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="B30">
-        <v>748310.6212359699</v>
+        <v>99299.58714285714</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Padre Hurtado</t>
+          <t>Casablanca</t>
         </is>
       </c>
       <c r="B31">
-        <v>246800.570942371</v>
+        <v>127870.2553732304</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="B32">
-        <v>183600.7147266314</v>
+        <v>203614.7462690231</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pedro Aguirre Cerda</t>
+          <t>Catemu</t>
         </is>
       </c>
       <c r="B33">
-        <v>194355.9330637192</v>
+        <v>147411.1126811594</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Peñaflor</t>
+          <t>Cauquenes</t>
         </is>
       </c>
       <c r="B34">
-        <v>230916.2931352103</v>
+        <v>105337.9196705426</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Peñalolén</t>
+          <t>Cerrillos</t>
         </is>
       </c>
       <c r="B35">
-        <v>265279.0324083057</v>
+        <v>148211.6747757074</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pirque</t>
+          <t>Cerro Navia</t>
         </is>
       </c>
       <c r="B36">
-        <v>166938.3386679758</v>
+        <v>129951.4147115757</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Providencia</t>
+          <t>Chanco</t>
         </is>
       </c>
       <c r="B37">
-        <v>1225991.76569697</v>
+        <v>92193.02721088435</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pudahuel</t>
+          <t>Chañaral</t>
         </is>
       </c>
       <c r="B38">
-        <v>179581.2870727432</v>
+        <v>158996.5172413793</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Puente Alto</t>
+          <t>Chépica</t>
         </is>
       </c>
       <c r="B39">
-        <v>199446.3062265261</v>
+        <v>104134.712987013</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Quilicura</t>
+          <t>Chiguayante</t>
         </is>
       </c>
       <c r="B40">
-        <v>218241.3237597261</v>
+        <v>227106.8559911037</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Quinta Normal</t>
+          <t>Chile Chico</t>
         </is>
       </c>
       <c r="B41">
-        <v>247099.2330882353</v>
+        <v>326071.0764840182</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Chillán</t>
         </is>
       </c>
       <c r="B42">
-        <v>206550.4926678621</v>
+        <v>161783.7788643869</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Renca</t>
+          <t>Chillán Viejo</t>
         </is>
       </c>
       <c r="B43">
-        <v>156441.6694864613</v>
+        <v>146738.9696586599</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>San Bernardo</t>
+          <t>Chimbarongo</t>
         </is>
       </c>
       <c r="B44">
-        <v>182677.1794489241</v>
+        <v>205557.882957152</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>San Joaquín</t>
+          <t>Cholchol</t>
         </is>
       </c>
       <c r="B45">
-        <v>167346.1387922527</v>
+        <v>151221.2096045198</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>San José de Maipo</t>
+          <t>Chonchi</t>
         </is>
       </c>
       <c r="B46">
-        <v>253224.0781331438</v>
+        <v>109552.26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>San Miguel</t>
+          <t>Cisnes</t>
         </is>
       </c>
       <c r="B47">
-        <v>254876.0850537021</v>
+        <v>255535.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>San Pedro</t>
+          <t>Cobquecura</t>
         </is>
       </c>
       <c r="B48">
-        <v>139217.0176767677</v>
+        <v>122865.4411764706</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>San Ramón</t>
+          <t>Cochrane</t>
         </is>
       </c>
       <c r="B49">
-        <v>198699.7545340624</v>
+        <v>227856.1452991453</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Codegua</t>
         </is>
       </c>
       <c r="B50">
-        <v>558701.1569642033</v>
+        <v>147377.4772108844</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Talagante</t>
+          <t>Coelemu</t>
         </is>
       </c>
       <c r="B51">
-        <v>239234.4133665967</v>
+        <v>152187.4295959596</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tiltil</t>
+          <t>Coihueco</t>
         </is>
       </c>
       <c r="B52">
-        <v>220591.0969720497</v>
+        <v>110602.4784946237</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>Coinco</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>158767.3854928018</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Colbún</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>122696.1681818182</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Colina</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>117338.4697032436</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Collipulli</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>140313.5081554461</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Coltauco</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>133373.2172690763</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Combarbalá</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>110729.6337606838</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Concepción</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>259687.3349508541</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Conchalí</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>186261.3440770341</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Concón</t>
+        </is>
+      </c>
+      <c r="B61">
+        <v>372469.7343323343</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Constitución</t>
+        </is>
+      </c>
+      <c r="B62">
+        <v>150799.4195084485</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Contulmo</t>
+        </is>
+      </c>
+      <c r="B63">
+        <v>193597.4796536797</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Copiapó</t>
+        </is>
+      </c>
+      <c r="B64">
+        <v>250594.5268797949</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="B65">
+        <v>176792.2296194028</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Coronel</t>
+        </is>
+      </c>
+      <c r="B66">
+        <v>155972.6539065492</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Corral</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>174345.4609929078</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Coyhaique</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>333575.6487894419</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Cunco</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>68538.41558956917</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Curacautín</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>103973.8257751938</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Curacaví</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>188076.5405117271</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Curaco de Vélez</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>183299.9930555556</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Curanilahue</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>121698.2991140642</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Curarrehue</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>97506.41194805194</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Curepto</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>184852.7138095238</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Curicó</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>177992.5100683491</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Dalcahue</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>163415.147887324</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Diego de Almagro</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>200042.3309145881</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Doñihue</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>145260.9517625232</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>El Bosque</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>144940.2151639596</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>El Carmen</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>85952.38095238095</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>El Monte</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>185748.8358585859</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>El Quisco</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>99986.01145021645</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>El Tabo</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>70819.95555555556</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Empedrado</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>105723.3070707071</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Ercilla</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>113752.0467391304</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Estación Central</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>223622.7199074074</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>143783.4098228664</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Freire</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>116230.2607758621</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Freirina</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>143002.1800699301</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Fresia</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>93529.69502801121</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Frutillar</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>188106.7226744186</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Futrono</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>113966.0404530744</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Galvarino</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>131984.6675324676</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Gorbea</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>123269.7053140097</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Graneros</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>163102.8579161579</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Hijuelas</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>120901.8512820513</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Hualañé</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>181955.4366666667</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Hualpén</t>
+        </is>
+      </c>
+      <c r="B99">
+        <v>160357.5671536796</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Hualqui</t>
+        </is>
+      </c>
+      <c r="B100">
+        <v>118134.8706597222</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Huara</t>
+        </is>
+      </c>
+      <c r="B101">
+        <v>60703.93374741201</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Huasco</t>
+        </is>
+      </c>
+      <c r="B102">
+        <v>181928.2158536585</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Huechuraba</t>
+        </is>
+      </c>
+      <c r="B103">
+        <v>318125.4347359058</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Illapel</t>
+        </is>
+      </c>
+      <c r="B104">
+        <v>193716.199290293</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Independencia</t>
+        </is>
+      </c>
+      <c r="B105">
+        <v>223919.7202861953</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Iquique</t>
+        </is>
+      </c>
+      <c r="B106">
+        <v>286169.7740779441</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Isla de Maipo</t>
+        </is>
+      </c>
+      <c r="B107">
+        <v>131820.4121735791</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>La Cisterna</t>
+        </is>
+      </c>
+      <c r="B108">
+        <v>240359.7214109348</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>La Cruz</t>
+        </is>
+      </c>
+      <c r="B109">
+        <v>162161.9342857143</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>La Estrella</t>
+        </is>
+      </c>
+      <c r="B110">
+        <v>180226.5413022352</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>La Florida</t>
+        </is>
+      </c>
+      <c r="B111">
+        <v>248608.6650477308</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>La Granja</t>
+        </is>
+      </c>
+      <c r="B112">
+        <v>156142.0274020851</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>La Higuera</t>
+        </is>
+      </c>
+      <c r="B113">
+        <v>112534.745</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>La Ligua</t>
+        </is>
+      </c>
+      <c r="B114">
+        <v>169775.1472222222</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>La Pintana</t>
+        </is>
+      </c>
+      <c r="B115">
+        <v>120208.1633550642</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>La Reina</t>
+        </is>
+      </c>
+      <c r="B116">
+        <v>348806.3971180556</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>La Serena</t>
+        </is>
+      </c>
+      <c r="B117">
+        <v>174260.235979907</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>La Unión</t>
+        </is>
+      </c>
+      <c r="B118">
+        <v>155337.5438551698</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Lago Ranco</t>
+        </is>
+      </c>
+      <c r="B119">
+        <v>97278.14979591836</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Laja</t>
+        </is>
+      </c>
+      <c r="B120">
+        <v>176973.1505199781</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Lampa</t>
+        </is>
+      </c>
+      <c r="B121">
+        <v>158426.8470790378</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Lanco</t>
+        </is>
+      </c>
+      <c r="B122">
+        <v>124179.338053467</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Las Cabras</t>
+        </is>
+      </c>
+      <c r="B123">
+        <v>142687.0256410257</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Las Condes</t>
+        </is>
+      </c>
+      <c r="B124">
+        <v>835781.5691829005</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Lautaro</t>
+        </is>
+      </c>
+      <c r="B125">
+        <v>136128.9385069817</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Lebu</t>
+        </is>
+      </c>
+      <c r="B126">
+        <v>114416.7252747253</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Licantén</t>
+        </is>
+      </c>
+      <c r="B127">
+        <v>118600.816091954</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="B128">
+        <v>108021.8199279712</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="B129">
+        <v>176645.0876579203</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Litueche</t>
+        </is>
+      </c>
+      <c r="B130">
+        <v>138449.4981481482</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Llaillay</t>
+        </is>
+      </c>
+      <c r="B131">
+        <v>134561.0371988796</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Llanquihue</t>
+        </is>
+      </c>
+      <c r="B132">
+        <v>242758.1987421384</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Lo Barnechea</t>
+        </is>
+      </c>
+      <c r="B133">
+        <v>491425.0396366913</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Lo Espejo</t>
+        </is>
+      </c>
+      <c r="B134">
+        <v>124287.9980874806</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Lo Prado</t>
+        </is>
+      </c>
+      <c r="B135">
+        <v>115178.3983371126</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Lolol</t>
+        </is>
+      </c>
+      <c r="B136">
+        <v>110537.9725947522</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Loncoche</t>
+        </is>
+      </c>
+      <c r="B137">
+        <v>136309.3533866995</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Longaví</t>
+        </is>
+      </c>
+      <c r="B138">
+        <v>100194.0228824273</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Lonquimay</t>
+        </is>
+      </c>
+      <c r="B139">
+        <v>147521.875</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Los Álamos</t>
+        </is>
+      </c>
+      <c r="B140">
+        <v>95932.86534056661</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Los Andes</t>
+        </is>
+      </c>
+      <c r="B141">
+        <v>161859.7912037037</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Los Ángeles</t>
+        </is>
+      </c>
+      <c r="B142">
+        <v>174577.2007865222</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="B143">
+        <v>107092.2415492958</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Los Muermos</t>
+        </is>
+      </c>
+      <c r="B144">
+        <v>83459.06666666667</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Los Sauces</t>
+        </is>
+      </c>
+      <c r="B145">
+        <v>107963.1151515152</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Los Vilos</t>
+        </is>
+      </c>
+      <c r="B146">
+        <v>149261.974291742</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Lota</t>
+        </is>
+      </c>
+      <c r="B147">
+        <v>113859.5743606702</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Lumaco</t>
+        </is>
+      </c>
+      <c r="B148">
+        <v>102494.2880952381</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Machalí</t>
+        </is>
+      </c>
+      <c r="B149">
+        <v>314031.7998539982</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Macul</t>
+        </is>
+      </c>
+      <c r="B150">
+        <v>253141.6719686949</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Máfil</t>
+        </is>
+      </c>
+      <c r="B151">
+        <v>127037.1605392157</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Maipú</t>
+        </is>
+      </c>
+      <c r="B152">
+        <v>218538.1834473636</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Malloa</t>
+        </is>
+      </c>
+      <c r="B153">
+        <v>127880.2299086758</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Marchihue</t>
+        </is>
+      </c>
+      <c r="B154">
+        <v>202741.4798076923</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>María Elena</t>
+        </is>
+      </c>
+      <c r="B155">
+        <v>177071.1328828829</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>María Pinto</t>
+        </is>
+      </c>
+      <c r="B156">
+        <v>156594.748427673</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Mariquina</t>
+        </is>
+      </c>
+      <c r="B157">
+        <v>123181.5905588624</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="B158">
+        <v>125115.8431045145</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Maullín</t>
+        </is>
+      </c>
+      <c r="B159">
+        <v>102035.8542168675</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Mejillones</t>
+        </is>
+      </c>
+      <c r="B160">
+        <v>206047.9559748428</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Melipeuco</t>
+        </is>
+      </c>
+      <c r="B161">
+        <v>147415.1515151515</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Melipilla</t>
+        </is>
+      </c>
+      <c r="B162">
+        <v>179099.8536669213</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Molina</t>
+        </is>
+      </c>
+      <c r="B163">
+        <v>128825.0502207506</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Monte Patria</t>
+        </is>
+      </c>
+      <c r="B164">
+        <v>83307.68512339242</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Mostazal</t>
+        </is>
+      </c>
+      <c r="B165">
+        <v>165068.5454099166</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Mulchén</t>
+        </is>
+      </c>
+      <c r="B166">
+        <v>117271.3778825996</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Nacimiento</t>
+        </is>
+      </c>
+      <c r="B167">
+        <v>135966.4574829932</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Nancagua</t>
+        </is>
+      </c>
+      <c r="B168">
+        <v>175250.7790616247</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Natales</t>
+        </is>
+      </c>
+      <c r="B169">
+        <v>195459.4776739356</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Navidad</t>
+        </is>
+      </c>
+      <c r="B170">
+        <v>109930.0702883971</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Negrete</t>
+        </is>
+      </c>
+      <c r="B171">
+        <v>113709.841991342</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Ninhue</t>
+        </is>
+      </c>
+      <c r="B172">
+        <v>96858.04519774011</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Nogales</t>
+        </is>
+      </c>
+      <c r="B173">
+        <v>176240.8572916667</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Nueva Imperial</t>
+        </is>
+      </c>
+      <c r="B174">
+        <v>98109.55028735632</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Ñiquén</t>
+        </is>
+      </c>
+      <c r="B175">
+        <v>96676.20323129252</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Ñuñoa</t>
+        </is>
+      </c>
+      <c r="B176">
+        <v>600633.9424344886</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Olivar</t>
+        </is>
+      </c>
+      <c r="B177">
+        <v>192477.7049823633</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Olmué</t>
+        </is>
+      </c>
+      <c r="B178">
+        <v>144858.478</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Osorno</t>
+        </is>
+      </c>
+      <c r="B179">
+        <v>239409.5979334032</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Ovalle</t>
+        </is>
+      </c>
+      <c r="B180">
+        <v>137467.1478682933</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Padre Hurtado</t>
+        </is>
+      </c>
+      <c r="B181">
+        <v>104955.1140505585</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Padre Las Casas</t>
+        </is>
+      </c>
+      <c r="B182">
+        <v>110979.0788446526</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Paiguano</t>
+        </is>
+      </c>
+      <c r="B183">
+        <v>179347.8260869565</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Paillaco</t>
+        </is>
+      </c>
+      <c r="B184">
+        <v>115617.1940816327</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="B185">
+        <v>161919.3043040293</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Palmilla</t>
+        </is>
+      </c>
+      <c r="B186">
+        <v>162837.0202517789</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Panguipulli</t>
+        </is>
+      </c>
+      <c r="B187">
+        <v>139839.2832157555</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Panquehue</t>
+        </is>
+      </c>
+      <c r="B188">
+        <v>114762.6378657487</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Papudo</t>
+        </is>
+      </c>
+      <c r="B189">
+        <v>152847.9655122655</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Paredones</t>
+        </is>
+      </c>
+      <c r="B190">
+        <v>117218.8109452736</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Parral</t>
+        </is>
+      </c>
+      <c r="B191">
+        <v>141070.2652597403</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Pedro Aguirre Cerda</t>
+        </is>
+      </c>
+      <c r="B192">
+        <v>137396.7995047413</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Pelarco</t>
+        </is>
+      </c>
+      <c r="B193">
+        <v>103691.1774193548</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Pelluhue</t>
+        </is>
+      </c>
+      <c r="B194">
+        <v>87172.86706349207</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Pemuco</t>
+        </is>
+      </c>
+      <c r="B195">
+        <v>107246.4947916667</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Pencahue</t>
+        </is>
+      </c>
+      <c r="B196">
+        <v>130726.0673611111</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Penco</t>
+        </is>
+      </c>
+      <c r="B197">
+        <v>141314.1679169992</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Peñaflor</t>
+        </is>
+      </c>
+      <c r="B198">
+        <v>180984.5226109492</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Peñalolén</t>
+        </is>
+      </c>
+      <c r="B199">
+        <v>269087.1857215447</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Peralillo</t>
+        </is>
+      </c>
+      <c r="B200">
+        <v>166716.423015873</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Perquenco</t>
+        </is>
+      </c>
+      <c r="B201">
+        <v>104558.5574786325</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Petorca</t>
+        </is>
+      </c>
+      <c r="B202">
+        <v>183215.3345439871</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Peumo</t>
+        </is>
+      </c>
+      <c r="B203">
+        <v>133525.4425612053</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Pica</t>
+        </is>
+      </c>
+      <c r="B204">
+        <v>131601.0985615079</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Pichidegua</t>
+        </is>
+      </c>
+      <c r="B205">
+        <v>126629.0100308642</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Pichilemu</t>
+        </is>
+      </c>
+      <c r="B206">
+        <v>132582.4543354655</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Pinto</t>
+        </is>
+      </c>
+      <c r="B207">
+        <v>130092.5722222222</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Pirque</t>
+        </is>
+      </c>
+      <c r="B208">
+        <v>242286.3877865961</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Pitrufquén</t>
+        </is>
+      </c>
+      <c r="B209">
+        <v>117550.3241301908</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Placilla</t>
+        </is>
+      </c>
+      <c r="B210">
+        <v>114242.6217948718</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Portezuelo</t>
+        </is>
+      </c>
+      <c r="B211">
+        <v>133567.0953823954</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Porvenir</t>
+        </is>
+      </c>
+      <c r="B212">
+        <v>256863.2075471698</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Pozo Almonte</t>
+        </is>
+      </c>
+      <c r="B213">
+        <v>216389.8953341014</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Providencia</t>
+        </is>
+      </c>
+      <c r="B214">
+        <v>802862.3799559472</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Puchuncaví</t>
+        </is>
+      </c>
+      <c r="B215">
+        <v>113359.5718518519</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Pucón</t>
+        </is>
+      </c>
+      <c r="B216">
+        <v>139414.933974359</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Pudahuel</t>
+        </is>
+      </c>
+      <c r="B217">
+        <v>237056.4344868955</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Puente Alto</t>
+        </is>
+      </c>
+      <c r="B218">
+        <v>191362.2655364855</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+      <c r="B219">
+        <v>194845.2868632695</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Puerto Octay</t>
+        </is>
+      </c>
+      <c r="B220">
+        <v>111108.3298872181</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Puerto Varas</t>
+        </is>
+      </c>
+      <c r="B221">
+        <v>209260.3722567288</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Pumanque</t>
+        </is>
+      </c>
+      <c r="B222">
+        <v>124297.7565217391</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Punitaqui</t>
+        </is>
+      </c>
+      <c r="B223">
+        <v>101681.5091210614</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="B224">
+        <v>293116.8004959073</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Puqueldón</t>
+        </is>
+      </c>
+      <c r="B225">
+        <v>128472.3166666667</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Purén</t>
+        </is>
+      </c>
+      <c r="B226">
+        <v>93389.09006211181</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Purranque</t>
+        </is>
+      </c>
+      <c r="B227">
+        <v>155082.4760932945</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Putaendo</t>
+        </is>
+      </c>
+      <c r="B228">
+        <v>142908.8708900227</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Putre</t>
+        </is>
+      </c>
+      <c r="B229">
+        <v>199049.6634199134</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Puyehue</t>
+        </is>
+      </c>
+      <c r="B230">
+        <v>125479.7220160792</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Queilén</t>
+        </is>
+      </c>
+      <c r="B231">
+        <v>101818.6700680272</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Quellón</t>
+        </is>
+      </c>
+      <c r="B232">
+        <v>130116.9154228856</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Quemchi</t>
+        </is>
+      </c>
+      <c r="B233">
+        <v>136476.9595959596</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Quilaco</t>
+        </is>
+      </c>
+      <c r="B234">
+        <v>146983.9166666667</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Quilicura</t>
+        </is>
+      </c>
+      <c r="B235">
+        <v>213273.5613362193</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Quilleco</t>
+        </is>
+      </c>
+      <c r="B236">
+        <v>76407.88535196688</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Quillón</t>
+        </is>
+      </c>
+      <c r="B237">
+        <v>63958.89363778298</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Quillota</t>
+        </is>
+      </c>
+      <c r="B238">
+        <v>128740.6167305459</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Quilpué</t>
+        </is>
+      </c>
+      <c r="B239">
+        <v>195289.3582652341</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Quinchao</t>
+        </is>
+      </c>
+      <c r="B240">
+        <v>87381.28109452737</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Quinta de Tilcoco</t>
+        </is>
+      </c>
+      <c r="B241">
+        <v>118456.5989583333</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Quinta Normal</t>
+        </is>
+      </c>
+      <c r="B242">
+        <v>212968.02075623</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Quintero</t>
+        </is>
+      </c>
+      <c r="B243">
+        <v>152397.6691128506</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Quirihue</t>
+        </is>
+      </c>
+      <c r="B244">
+        <v>110784.7102564103</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Rancagua</t>
+        </is>
+      </c>
+      <c r="B245">
+        <v>204367.5473347941</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Ránquil</t>
+        </is>
+      </c>
+      <c r="B246">
+        <v>109574.2936507937</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Rauco</t>
+        </is>
+      </c>
+      <c r="B247">
+        <v>136771.3230364873</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="B248">
+        <v>173425.7956154046</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Renaico</t>
+        </is>
+      </c>
+      <c r="B249">
+        <v>66764.66358024691</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Renca</t>
+        </is>
+      </c>
+      <c r="B250">
+        <v>161674.7957584156</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Rengo</t>
+        </is>
+      </c>
+      <c r="B251">
+        <v>151386.6110408765</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Requínoa</t>
+        </is>
+      </c>
+      <c r="B252">
+        <v>132749.0910025063</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Retiro</t>
+        </is>
+      </c>
+      <c r="B253">
+        <v>95425.93095238095</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Rinconada</t>
+        </is>
+      </c>
+      <c r="B254">
+        <v>233711.91875</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Río Bueno</t>
+        </is>
+      </c>
+      <c r="B255">
+        <v>116848.9548717949</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Río Claro</t>
+        </is>
+      </c>
+      <c r="B256">
+        <v>127942.5119179601</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Río Hurtado</t>
+        </is>
+      </c>
+      <c r="B257">
+        <v>100312.0884353741</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Río Ibáñez</t>
+        </is>
+      </c>
+      <c r="B258">
+        <v>143508.4558080808</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Río Negro</t>
+        </is>
+      </c>
+      <c r="B259">
+        <v>111341.3223562152</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Romeral</t>
+        </is>
+      </c>
+      <c r="B260">
+        <v>126019.1856540084</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="B261">
+        <v>96584.31575369075</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Sagrada Familia</t>
+        </is>
+      </c>
+      <c r="B262">
+        <v>136357.4575757576</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Salamanca</t>
+        </is>
+      </c>
+      <c r="B263">
+        <v>175819.4777536379</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="B264">
+        <v>148738.8928851541</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>San Bernardo</t>
+        </is>
+      </c>
+      <c r="B265">
+        <v>157052.4491529304</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="B266">
+        <v>118601.3602971103</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>San Clemente</t>
+        </is>
+      </c>
+      <c r="B267">
+        <v>124038.3954049136</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>San Esteban</t>
+        </is>
+      </c>
+      <c r="B268">
+        <v>277389.215037594</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>San Fabián</t>
+        </is>
+      </c>
+      <c r="B269">
+        <v>164550.8771186441</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>San Felipe</t>
+        </is>
+      </c>
+      <c r="B270">
+        <v>201362.274175889</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="B271">
+        <v>278255.4672619047</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>San Ignacio</t>
+        </is>
+      </c>
+      <c r="B272">
+        <v>74527.90898131405</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>San Javier</t>
+        </is>
+      </c>
+      <c r="B273">
+        <v>170216.2380952381</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>San Joaquín</t>
+        </is>
+      </c>
+      <c r="B274">
+        <v>166813.3710761905</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>San José de Maipo</t>
+        </is>
+      </c>
+      <c r="B275">
+        <v>169026.6733355379</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>San Juan de la Costa</t>
+        </is>
+      </c>
+      <c r="B276">
+        <v>58837.01658986175</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B277">
+        <v>441823.7394833105</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>San Nicolás</t>
+        </is>
+      </c>
+      <c r="B278">
+        <v>78545.19872798435</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>San Pablo</t>
+        </is>
+      </c>
+      <c r="B279">
+        <v>132026.5685897436</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>San Pedro</t>
+        </is>
+      </c>
+      <c r="B280">
+        <v>160441.279004329</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>San Pedro de Atacama</t>
+        </is>
+      </c>
+      <c r="B281">
+        <v>170587.8939498505</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>San Pedro de la Paz</t>
+        </is>
+      </c>
+      <c r="B282">
+        <v>201587.4738362084</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>San Rafael</t>
+        </is>
+      </c>
+      <c r="B283">
+        <v>120904.4562893082</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>San Ramón</t>
+        </is>
+      </c>
+      <c r="B284">
+        <v>121888.7742098609</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>San Rosendo</t>
+        </is>
+      </c>
+      <c r="B285">
+        <v>68748.4996031746</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>San Vicente</t>
+        </is>
+      </c>
+      <c r="B286">
+        <v>146250.4684656085</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Santa Bárbara</t>
+        </is>
+      </c>
+      <c r="B287">
+        <v>110199.6923234811</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Santa Cruz</t>
+        </is>
+      </c>
+      <c r="B288">
+        <v>170349.5406181015</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Santa Juana</t>
+        </is>
+      </c>
+      <c r="B289">
+        <v>116658.6047619048</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Santa María</t>
+        </is>
+      </c>
+      <c r="B290">
+        <v>168353.7884615385</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="B291">
+        <v>482627.9690202321</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Santo Domingo</t>
+        </is>
+      </c>
+      <c r="B292">
+        <v>149696.7261538462</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Sierra Gorda</t>
+        </is>
+      </c>
+      <c r="B293">
+        <v>165294.1176470588</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Talagante</t>
+        </is>
+      </c>
+      <c r="B294">
+        <v>217248.9735497836</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Talca</t>
+        </is>
+      </c>
+      <c r="B295">
+        <v>185657.6236065288</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Talcahuano</t>
+        </is>
+      </c>
+      <c r="B296">
+        <v>175581.3493968112</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Taltal</t>
+        </is>
+      </c>
+      <c r="B297">
+        <v>176629.575100687</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Temuco</t>
+        </is>
+      </c>
+      <c r="B298">
+        <v>174939.2705183954</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Teno</t>
+        </is>
+      </c>
+      <c r="B299">
+        <v>1166152.492009132</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Teodoro Schmidt</t>
+        </is>
+      </c>
+      <c r="B300">
+        <v>57592.48566308244</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Tierra Amarilla</t>
+        </is>
+      </c>
+      <c r="B301">
+        <v>192216.0178676781</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Tiltil</t>
+        </is>
+      </c>
+      <c r="B302">
+        <v>154740.2692090395</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Tirúa</t>
+        </is>
+      </c>
+      <c r="B303">
+        <v>164409.0518867924</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Tocopilla</t>
+        </is>
+      </c>
+      <c r="B304">
+        <v>209121.1427784337</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Toltén</t>
+        </is>
+      </c>
+      <c r="B305">
+        <v>82527.07213114754</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Tomé</t>
+        </is>
+      </c>
+      <c r="B306">
+        <v>109067.6133709981</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Traiguén</t>
+        </is>
+      </c>
+      <c r="B307">
+        <v>143383.7324561404</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Treguaco</t>
+        </is>
+      </c>
+      <c r="B308">
+        <v>135324.1683333333</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Tucapel</t>
+        </is>
+      </c>
+      <c r="B309">
+        <v>117781.8596491228</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Valdivia</t>
+        </is>
+      </c>
+      <c r="B310">
+        <v>203491.5834652843</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Vallenar</t>
+        </is>
+      </c>
+      <c r="B311">
+        <v>154924.8538334131</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Valparaíso</t>
+        </is>
+      </c>
+      <c r="B312">
+        <v>183128.4951729576</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Vichuquén</t>
+        </is>
+      </c>
+      <c r="B313">
+        <v>117319.485</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="B314">
+        <v>141794.000304998</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Vicuña</t>
+        </is>
+      </c>
+      <c r="B315">
+        <v>84924.53393413441</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Vilcún</t>
+        </is>
+      </c>
+      <c r="B316">
+        <v>99835.29773519163</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Villa Alegre</t>
+        </is>
+      </c>
+      <c r="B317">
+        <v>129368.8209876543</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Villa Alemana</t>
+        </is>
+      </c>
+      <c r="B318">
+        <v>162327.2828545549</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Villarrica</t>
+        </is>
+      </c>
+      <c r="B319">
+        <v>136674.4418472445</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Viña del Mar</t>
+        </is>
+      </c>
+      <c r="B320">
+        <v>239520.072759865</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
           <t>Vitacura</t>
         </is>
       </c>
-      <c r="B53">
-        <v>1438107.111872087</v>
+      <c r="B321">
+        <v>926914.4763945579</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Yerbas Buenas</t>
+        </is>
+      </c>
+      <c r="B322">
+        <v>155138.7497136311</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Yumbel</t>
+        </is>
+      </c>
+      <c r="B323">
+        <v>103999.8716666667</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Yungay</t>
+        </is>
+      </c>
+      <c r="B324">
+        <v>134971.6247165533</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Zapallar</t>
+        </is>
+      </c>
+      <c r="B325">
+        <v>139754.8050847458</v>
       </c>
     </row>
   </sheetData>
